--- a/medicine/Hématologie/Facteur_VIII_(médicament)/Facteur_VIII_(médicament).xlsx
+++ b/medicine/Hématologie/Facteur_VIII_(médicament)/Facteur_VIII_(médicament).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facteur_VIII_(m%C3%A9dicament)</t>
+          <t>Facteur_VIII_(médicament)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le facteur VIII est un médicament utilisé pour traiter et prévenir les saignements chez les personnes atteintes d'hémophilie A et d'autres causes de faible taux de facteur VIII [2],[3]. Certaines préparations peuvent également être utilisées chez les personnes atteintes de la maladie de von Willebrand [3]. Il est administré par injection lente dans une veine [2].
+Le facteur VIII est un médicament utilisé pour traiter et prévenir les saignements chez les personnes atteintes d'hémophilie A et d'autres causes de faible taux de facteur VIII ,. Certaines préparations peuvent également être utilisées chez les personnes atteintes de la maladie de von Willebrand . Il est administré par injection lente dans une veine .
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facteur_VIII_(m%C3%A9dicament)</t>
+          <t>Facteur_VIII_(médicament)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Effet secondaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires comprennent des rougeurs sur la peau , un essoufflement, la fièvre et la dégradation des globules rouges [2],[3]. Des réactions allergiques, y compris l'anaphylaxie, peuvent se produire[3]. On ne sait pas  si l'utilisation pendant la grossesse est sans danger pour le bébé[4]. Un concentré de facteur VIII purifié est fabriqué à partir de plasma sanguin humain[3], une version recombinante est également disponible[2]. Les personnes peuvent développer des anticorps dirigés contre le facteur VIII, de sorte que ce médicament devient moins efficace[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires comprennent des rougeurs sur la peau , un essoufflement, la fièvre et la dégradation des globules rouges ,. Des réactions allergiques, y compris l'anaphylaxie, peuvent se produire. On ne sait pas  si l'utilisation pendant la grossesse est sans danger pour le bébé. Un concentré de facteur VIII purifié est fabriqué à partir de plasma sanguin humain, une version recombinante est également disponible. Les personnes peuvent développer des anticorps dirigés contre le facteur VIII, de sorte que ce médicament devient moins efficace.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facteur_VIII_(m%C3%A9dicament)</t>
+          <t>Facteur_VIII_(médicament)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le facteur VIII a été identifié pour la première fois dans les années 1940 et est devenu disponible en tant que médicament dans les années 1960[5],[6]. Le facteur VIII recombinant a été fabriqué pour la première fois en 1984 et approuvé pour un usage médical aux États-Unis en 1992[7],[8]. Il figure sur la liste des médicaments essentiels de l'Organisation mondiale de la santé [9]. Le prix de gros dans le monde en développement est d'environ 119 à 497 dollars US par flacon de 500 UI[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le facteur VIII a été identifié pour la première fois dans les années 1940 et est devenu disponible en tant que médicament dans les années 1960,. Le facteur VIII recombinant a été fabriqué pour la première fois en 1984 et approuvé pour un usage médical aux États-Unis en 1992,. Il figure sur la liste des médicaments essentiels de l'Organisation mondiale de la santé . Le prix de gros dans le monde en développement est d'environ 119 à 497 dollars US par flacon de 500 UI.
 </t>
         </is>
       </c>
